--- a/15_WBSガントチャート(2日目午前).xlsx
+++ b/15_WBSガントチャート(2日目午前).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5B8CF0-A13C-4688-831F-B8338857EB01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE00937-C93A-4A68-8744-9A77893CCE55}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1533,6 +1533,30 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1542,7 +1566,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1551,31 +1581,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1602,6 +1611,96 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1631,105 +1730,6 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2311,10 +2311,10 @@
   <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="102" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="I41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
+      <selection pane="bottomRight" activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2333,120 +2333,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="97" t="s">
+      <c r="A1" s="99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="97" t="s">
+      <c r="F1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="97" t="s">
+      <c r="H1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="97" t="s">
+      <c r="J1" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="81">
+      <c r="L1" s="114">
         <v>43984</v>
       </c>
-      <c r="M1" s="82"/>
-      <c r="N1" s="81">
+      <c r="M1" s="115"/>
+      <c r="N1" s="114">
         <v>43985</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="81">
+      <c r="O1" s="115"/>
+      <c r="P1" s="114">
         <v>43986</v>
       </c>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="81">
+      <c r="Q1" s="115"/>
+      <c r="R1" s="114">
         <v>43987</v>
       </c>
-      <c r="S1" s="82"/>
+      <c r="S1" s="115"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="101"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="85" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="84"/>
-      <c r="N2" s="83" t="s">
+      <c r="M2" s="117"/>
+      <c r="N2" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="86" t="s">
+      <c r="O2" s="116"/>
+      <c r="P2" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="83" t="s">
+      <c r="Q2" s="117"/>
+      <c r="R2" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="84"/>
+      <c r="S2" s="117"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="101"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="89" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="88"/>
-      <c r="N3" s="87" t="s">
+      <c r="M3" s="121"/>
+      <c r="N3" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="88"/>
-      <c r="P3" s="87" t="s">
+      <c r="O3" s="121"/>
+      <c r="P3" s="120" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="90" t="s">
+      <c r="Q3" s="121"/>
+      <c r="R3" s="123" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="90"/>
+      <c r="S3" s="123"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="93"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="95"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2473,15 +2473,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
-      <c r="G5" s="121"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="89"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2525,13 +2525,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="106"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="122"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="90"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="N6" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="O6" s="47">
         <f t="shared" si="1"/>
@@ -2575,15 +2575,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="111" t="s">
+      <c r="A7" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="114"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="111"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2627,13 +2627,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="115"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="112"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2677,16 +2677,16 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="70">
+      <c r="A9" s="58">
         <v>1</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
       <c r="G9" s="56"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
@@ -2705,12 +2705,12 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="71"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="57"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
@@ -2729,17 +2729,17 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="70"/>
-      <c r="B11" s="72" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="60"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v/>
@@ -2766,12 +2766,12 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="71"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="61"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="61"/>
       <c r="H12" s="54" t="str">
         <f>IF(E11="","","実績")</f>
@@ -2797,17 +2797,17 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="70"/>
-      <c r="B13" s="72" t="s">
+      <c r="A13" s="58"/>
+      <c r="B13" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="66"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="60"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v/>
@@ -2834,12 +2834,12 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="71"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="61"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="61"/>
       <c r="H14" s="54" t="str">
         <f>IF(E13="","","実績")</f>
@@ -2865,16 +2865,16 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="70">
+      <c r="A15" s="58">
         <v>2</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="56"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
@@ -2893,12 +2893,12 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="71"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="57"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
@@ -2917,17 +2917,17 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="70"/>
-      <c r="B17" s="72" t="s">
+      <c r="A17" s="58"/>
+      <c r="B17" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="60"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v/>
@@ -2956,12 +2956,12 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="71"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="61"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="61"/>
       <c r="H18" s="54" t="str">
         <f>IF(E17="","","実績")</f>
@@ -2987,17 +2987,17 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="70"/>
-      <c r="B19" s="72" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="60"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v/>
@@ -3027,12 +3027,12 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="71"/>
+      <c r="A20" s="59"/>
       <c r="B20" s="61"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="61"/>
       <c r="H20" s="54" t="str">
         <f>IF(E19="","","実績")</f>
@@ -3062,17 +3062,17 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="70"/>
-      <c r="B21" s="72" t="s">
+      <c r="A21" s="58"/>
+      <c r="B21" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="60"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v/>
@@ -3099,12 +3099,12 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="71"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="61"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="61"/>
       <c r="H22" s="54" t="str">
         <f>IF(E21="","","実績")</f>
@@ -3130,15 +3130,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="117"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="74"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3182,13 +3182,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="118"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="75"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3196,7 +3196,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$25:K$42),2)=0)*K$25:K$42)</f>
-        <v>14.25</v>
+        <v>16.75</v>
       </c>
       <c r="L24" s="42">
         <f t="shared" ref="L24:S24" si="7">SUMPRODUCT((MOD(ROW(L$25:L$42),2)=0)*L$25:L$42)</f>
@@ -3212,7 +3212,7 @@
       </c>
       <c r="O24" s="36">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="P24" s="36">
         <f t="shared" si="7"/>
@@ -3232,16 +3232,16 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="70">
+      <c r="A25" s="58">
         <v>1</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
       <c r="G25" s="56"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
@@ -3260,12 +3260,12 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="71"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
       <c r="G26" s="57"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
@@ -3284,17 +3284,17 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="70"/>
-      <c r="B27" s="72" t="s">
+      <c r="A27" s="58"/>
+      <c r="B27" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="66"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="60"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v/>
@@ -3321,12 +3321,12 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="71"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="61"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
       <c r="G28" s="61"/>
       <c r="H28" s="54" t="str">
         <f>IF(E27="","","実績")</f>
@@ -3354,17 +3354,17 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="70"/>
-      <c r="B29" s="72" t="s">
+      <c r="A29" s="58"/>
+      <c r="B29" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="60"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="68"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v/>
@@ -3391,12 +3391,12 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="71"/>
+      <c r="A30" s="59"/>
       <c r="B30" s="61"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
       <c r="G30" s="61"/>
       <c r="H30" s="54" t="str">
         <f>IF(E29="","","実績")</f>
@@ -3427,17 +3427,17 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="70"/>
-      <c r="B31" s="72" t="s">
+      <c r="A31" s="58"/>
+      <c r="B31" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="66"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="60"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v/>
@@ -3465,12 +3465,12 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="71"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="61"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
       <c r="G32" s="61"/>
       <c r="H32" s="54" t="str">
         <f>IF(E31="","","実績")</f>
@@ -3495,17 +3495,17 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="70"/>
-      <c r="B33" s="72" t="s">
+      <c r="A33" s="58"/>
+      <c r="B33" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="66"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="60"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="68"/>
       <c r="H33" s="8" t="str">
         <f>IF(E33="","","予定")</f>
         <v/>
@@ -3533,12 +3533,12 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="71"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="61"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
       <c r="G34" s="61"/>
       <c r="H34" s="54" t="str">
         <f>IF(E33="","","実績")</f>
@@ -3563,16 +3563,16 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="70">
+      <c r="A35" s="58">
         <v>2</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
       <c r="G35" s="56"/>
       <c r="H35" s="23" t="str">
         <f>IF(E35="","","予定")</f>
@@ -3591,12 +3591,12 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="71"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
       <c r="G36" s="57"/>
       <c r="H36" s="24" t="str">
         <f>IF(E35="","","実績")</f>
@@ -3615,17 +3615,17 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="70"/>
-      <c r="B37" s="72" t="s">
+      <c r="A37" s="58"/>
+      <c r="B37" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="66"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="60"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="68"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v/>
@@ -3653,12 +3653,12 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="71"/>
+      <c r="A38" s="59"/>
       <c r="B38" s="61"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
       <c r="G38" s="61"/>
       <c r="H38" s="54" t="str">
         <f>IF(E37="","","実績")</f>
@@ -3668,7 +3668,7 @@
       <c r="J38" s="54"/>
       <c r="K38" s="10">
         <f>SUM(L38:S38)</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="L38" s="41"/>
       <c r="M38" s="51"/>
@@ -3676,24 +3676,27 @@
         <f>0.5*5</f>
         <v>2.5</v>
       </c>
-      <c r="O38" s="32"/>
+      <c r="O38" s="32">
+        <f>0.5*5</f>
+        <v>2.5</v>
+      </c>
       <c r="P38" s="32"/>
       <c r="Q38" s="32"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="70"/>
-      <c r="B39" s="72" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="66"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="60"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="68"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v/>
@@ -3720,12 +3723,12 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="71"/>
+      <c r="A40" s="59"/>
       <c r="B40" s="61"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
       <c r="G40" s="61"/>
       <c r="H40" s="54" t="str">
         <f>IF(E39="","","実績")</f>
@@ -3743,24 +3746,27 @@
         <f>0.5*5</f>
         <v>2.5</v>
       </c>
-      <c r="O40" s="32"/>
+      <c r="O40" s="32">
+        <f>1.25*6</f>
+        <v>7.5</v>
+      </c>
       <c r="P40" s="32"/>
       <c r="Q40" s="32"/>
       <c r="R40" s="32"/>
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="70"/>
-      <c r="B41" s="72" t="s">
+      <c r="A41" s="58"/>
+      <c r="B41" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="66"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="60"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="68"/>
       <c r="H41" s="8" t="str">
         <f>IF(E41="","","予定")</f>
         <v/>
@@ -3787,12 +3793,12 @@
       <c r="S41" s="31"/>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="71"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="61"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
       <c r="G42" s="61"/>
       <c r="H42" s="54" t="str">
         <f>IF(E41="","","実績")</f>
@@ -3810,22 +3816,25 @@
         <f>0.5*1</f>
         <v>0.5</v>
       </c>
-      <c r="O42" s="32"/>
+      <c r="O42" s="32">
+        <f>0.5*1</f>
+        <v>0.5</v>
+      </c>
       <c r="P42" s="32"/>
       <c r="Q42" s="32"/>
       <c r="R42" s="32"/>
       <c r="S42" s="32"/>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="75"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="117"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="74"/>
       <c r="H43" s="20" t="s">
         <v>19</v>
       </c>
@@ -3869,13 +3878,13 @@
       </c>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="76"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="118"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="75"/>
       <c r="H44" s="7" t="s">
         <v>20</v>
       </c>
@@ -3883,7 +3892,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$45:K$58),2)=0)*K$45:K$58)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L44" s="36">
         <f t="shared" ref="L44:S44" si="11">SUMPRODUCT((MOD(ROW(L$45:L$58),2)=0)*L$45:L$58)</f>
@@ -3899,7 +3908,7 @@
       </c>
       <c r="O44" s="36">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P44" s="36">
         <f t="shared" si="11"/>
@@ -3919,16 +3928,16 @@
       </c>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="70">
+      <c r="A45" s="58">
         <v>1</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
       <c r="G45" s="56"/>
       <c r="H45" s="23" t="str">
         <f>IF(E45="","","予定")</f>
@@ -3947,12 +3956,12 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="71"/>
-      <c r="B46" s="67"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="71"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
       <c r="G46" s="57"/>
       <c r="H46" s="24" t="str">
         <f>IF(E45="","","実績")</f>
@@ -3971,17 +3980,17 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="70"/>
-      <c r="B47" s="72" t="s">
+      <c r="A47" s="58"/>
+      <c r="B47" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="66"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="60"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="68"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v/>
@@ -4009,12 +4018,12 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="71"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="61"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
       <c r="G48" s="61"/>
       <c r="H48" s="54" t="str">
         <f>IF(E47="","","実績")</f>
@@ -4024,29 +4033,32 @@
       <c r="J48" s="54"/>
       <c r="K48" s="10">
         <f>SUM(L48:S48)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L48" s="41"/>
       <c r="M48" s="53"/>
       <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
+      <c r="O48" s="32">
+        <f>1*5</f>
+        <v>5</v>
+      </c>
       <c r="P48" s="32"/>
       <c r="Q48" s="32"/>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="70"/>
-      <c r="B49" s="72" t="s">
+      <c r="A49" s="58"/>
+      <c r="B49" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="64" t="s">
+      <c r="C49" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="60"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="68"/>
       <c r="H49" s="8" t="str">
         <f>IF(E49="","","予定")</f>
         <v/>
@@ -4074,12 +4086,12 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="71"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="61"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
       <c r="G50" s="61"/>
       <c r="H50" s="54" t="str">
         <f>IF(E49="","","実績")</f>
@@ -4101,16 +4113,16 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="70">
+      <c r="A51" s="58">
         <v>2</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="65"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="62"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
       <c r="G51" s="56"/>
       <c r="H51" s="23" t="str">
         <f>IF(E51="","","予定")</f>
@@ -4129,12 +4141,12 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="71"/>
-      <c r="B52" s="67"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="71"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
       <c r="G52" s="57"/>
       <c r="H52" s="24" t="str">
         <f>IF(E51="","","実績")</f>
@@ -4153,17 +4165,17 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="70"/>
-      <c r="B53" s="72" t="s">
+      <c r="A53" s="58"/>
+      <c r="B53" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D53" s="66"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="60"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="68"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v/>
@@ -4191,12 +4203,12 @@
       <c r="S53" s="31"/>
     </row>
     <row r="54" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="71"/>
+      <c r="A54" s="59"/>
       <c r="B54" s="61"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
       <c r="G54" s="61"/>
       <c r="H54" s="54" t="str">
         <f>IF(E53="","","実績")</f>
@@ -4218,17 +4230,17 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="70"/>
-      <c r="B55" s="72" t="s">
+      <c r="A55" s="58"/>
+      <c r="B55" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="64" t="s">
+      <c r="C55" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="66"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="60"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="68"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v/>
@@ -4256,12 +4268,12 @@
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="71"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="61"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="67"/>
       <c r="G56" s="61"/>
       <c r="H56" s="54" t="str">
         <f>IF(E55="","","実績")</f>
@@ -4283,17 +4295,17 @@
       <c r="S56" s="32"/>
     </row>
     <row r="57" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="70"/>
-      <c r="B57" s="72" t="s">
+      <c r="A57" s="58"/>
+      <c r="B57" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="64" t="s">
+      <c r="C57" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D57" s="66"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="60"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="68"/>
       <c r="H57" s="8" t="str">
         <f>IF(E57="","","予定")</f>
         <v/>
@@ -4320,12 +4332,12 @@
       <c r="S57" s="31"/>
     </row>
     <row r="58" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="71"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="61"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="59"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="67"/>
       <c r="G58" s="61"/>
       <c r="H58" s="54" t="str">
         <f>IF(E57="","","実績")</f>
@@ -4347,15 +4359,15 @@
       <c r="S58" s="44"/>
     </row>
     <row r="59" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="73" t="s">
+      <c r="A59" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="74"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="75"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="117"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="74"/>
       <c r="H59" s="20" t="s">
         <v>19</v>
       </c>
@@ -4399,13 +4411,13 @@
       </c>
     </row>
     <row r="60" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="76"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="118"/>
+      <c r="A60" s="79"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="75"/>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
@@ -4449,16 +4461,16 @@
       </c>
     </row>
     <row r="61" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="70">
+      <c r="A61" s="58">
         <v>1</v>
       </c>
-      <c r="B61" s="64" t="s">
+      <c r="B61" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="65"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
       <c r="G61" s="56"/>
       <c r="H61" s="23" t="str">
         <f>IF(E61="","","予定")</f>
@@ -4477,12 +4489,12 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="71"/>
-      <c r="B62" s="67"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
       <c r="G62" s="57"/>
       <c r="H62" s="24" t="str">
         <f>IF(E61="","","実績")</f>
@@ -4501,17 +4513,17 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="70"/>
-      <c r="B63" s="72" t="s">
+      <c r="A63" s="58"/>
+      <c r="B63" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="64" t="s">
+      <c r="C63" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="66"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="60"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="68"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v/>
@@ -4539,12 +4551,12 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="71"/>
+      <c r="A64" s="59"/>
       <c r="B64" s="61"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
       <c r="G64" s="61"/>
       <c r="H64" s="54" t="str">
         <f>IF(E63="","","実績")</f>
@@ -4566,17 +4578,17 @@
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="70"/>
-      <c r="B65" s="72" t="s">
+      <c r="A65" s="58"/>
+      <c r="B65" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="64" t="s">
+      <c r="C65" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D65" s="66"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="60"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="68"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v/>
@@ -4603,12 +4615,12 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="71"/>
+      <c r="A66" s="59"/>
       <c r="B66" s="61"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
       <c r="G66" s="61"/>
       <c r="H66" s="54" t="str">
         <f>IF(E65="","","実績")</f>
@@ -4630,17 +4642,17 @@
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="70"/>
-      <c r="B67" s="72" t="s">
+      <c r="A67" s="58"/>
+      <c r="B67" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="64" t="s">
+      <c r="C67" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D67" s="66"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="60"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="68"/>
       <c r="H67" s="8" t="str">
         <f>IF(E67="","","予定")</f>
         <v/>
@@ -4668,12 +4680,12 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="71"/>
+      <c r="A68" s="59"/>
       <c r="B68" s="61"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="67"/>
       <c r="G68" s="61"/>
       <c r="H68" s="54" t="str">
         <f>IF(E67="","","実績")</f>
@@ -4695,16 +4707,16 @@
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="70">
+      <c r="A69" s="58">
         <v>2</v>
       </c>
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="65"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
       <c r="G69" s="56"/>
       <c r="H69" s="23" t="str">
         <f>IF(E69="","","予定")</f>
@@ -4723,12 +4735,12 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="71"/>
-      <c r="B70" s="67"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="63"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="73"/>
+      <c r="F70" s="73"/>
       <c r="G70" s="57"/>
       <c r="H70" s="24" t="str">
         <f>IF(E69="","","実績")</f>
@@ -4747,17 +4759,17 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="70"/>
-      <c r="B71" s="72" t="s">
+      <c r="A71" s="58"/>
+      <c r="B71" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="64" t="s">
+      <c r="C71" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D71" s="66"/>
-      <c r="E71" s="58"/>
-      <c r="F71" s="58"/>
-      <c r="G71" s="60"/>
+      <c r="D71" s="63"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="68"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v/>
@@ -4785,12 +4797,12 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="71"/>
+      <c r="A72" s="59"/>
       <c r="B72" s="61"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
       <c r="G72" s="61"/>
       <c r="H72" s="54" t="str">
         <f>IF(E71="","","実績")</f>
@@ -4812,17 +4824,17 @@
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="70"/>
-      <c r="B73" s="72" t="s">
+      <c r="A73" s="58"/>
+      <c r="B73" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C73" s="64" t="s">
+      <c r="C73" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="66"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58"/>
-      <c r="G73" s="60"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="68"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v/>
@@ -4850,12 +4862,12 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="71"/>
+      <c r="A74" s="59"/>
       <c r="B74" s="61"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
       <c r="G74" s="61"/>
       <c r="H74" s="54" t="str">
         <f>IF(E73="","","実績")</f>
@@ -4877,17 +4889,17 @@
       <c r="S74" s="32"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="70"/>
-      <c r="B75" s="72" t="s">
+      <c r="A75" s="58"/>
+      <c r="B75" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="64" t="s">
+      <c r="C75" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="66"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="60"/>
+      <c r="D75" s="63"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="68"/>
       <c r="H75" s="8" t="str">
         <f>IF(E75="","","予定")</f>
         <v/>
@@ -4915,12 +4927,12 @@
       <c r="S75" s="31"/>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="71"/>
+      <c r="A76" s="59"/>
       <c r="B76" s="61"/>
-      <c r="C76" s="67"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
       <c r="G76" s="61"/>
       <c r="H76" s="54" t="str">
         <f>IF(E75="","","実績")</f>
@@ -4942,15 +4954,15 @@
       <c r="S76" s="44"/>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="73" t="s">
+      <c r="A77" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="B77" s="74"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="75"/>
-      <c r="E77" s="79"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="117"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="82"/>
+      <c r="F77" s="82"/>
+      <c r="G77" s="74"/>
       <c r="H77" s="20" t="s">
         <v>19</v>
       </c>
@@ -4994,13 +5006,13 @@
       </c>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="76"/>
-      <c r="B78" s="77"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="80"/>
-      <c r="F78" s="80"/>
-      <c r="G78" s="118"/>
+      <c r="A78" s="79"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="75"/>
       <c r="H78" s="7" t="s">
         <v>20</v>
       </c>
@@ -5044,16 +5056,16 @@
       </c>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="70">
+      <c r="A79" s="58">
         <v>1</v>
       </c>
-      <c r="B79" s="64" t="s">
+      <c r="B79" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="65"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="72"/>
+      <c r="F79" s="72"/>
       <c r="G79" s="56"/>
       <c r="H79" s="23" t="str">
         <f>IF(E79="","","予定")</f>
@@ -5072,12 +5084,12 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="71"/>
-      <c r="B80" s="67"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63"/>
+      <c r="A80" s="59"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="71"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73"/>
       <c r="G80" s="57"/>
       <c r="H80" s="24" t="str">
         <f>IF(E79="","","実績")</f>
@@ -5096,17 +5108,17 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="70"/>
-      <c r="B81" s="72" t="s">
+      <c r="A81" s="58"/>
+      <c r="B81" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="64" t="s">
+      <c r="C81" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="66"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58"/>
-      <c r="G81" s="60"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="68"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v/>
@@ -5137,12 +5149,12 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="71"/>
+      <c r="A82" s="59"/>
       <c r="B82" s="61"/>
-      <c r="C82" s="67"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="59"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
       <c r="G82" s="61"/>
       <c r="H82" s="54" t="str">
         <f>IF(E81="","","実績")</f>
@@ -5164,17 +5176,17 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="70"/>
-      <c r="B83" s="72" t="s">
+      <c r="A83" s="58"/>
+      <c r="B83" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C83" s="64" t="s">
+      <c r="C83" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D83" s="66"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="58"/>
-      <c r="G83" s="60"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="68"/>
       <c r="H83" s="8" t="str">
         <f>IF(E83="","","予定")</f>
         <v/>
@@ -5205,12 +5217,12 @@
       <c r="S83" s="31"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="71"/>
+      <c r="A84" s="59"/>
       <c r="B84" s="61"/>
-      <c r="C84" s="67"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="59"/>
-      <c r="F84" s="59"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="67"/>
       <c r="G84" s="61"/>
       <c r="H84" s="54" t="str">
         <f>IF(E83="","","実績")</f>
@@ -5232,15 +5244,15 @@
       <c r="S84" s="32"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="73" t="s">
+      <c r="A85" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="B85" s="74"/>
-      <c r="C85" s="74"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="79"/>
-      <c r="F85" s="79"/>
-      <c r="G85" s="117"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="82"/>
+      <c r="F85" s="82"/>
+      <c r="G85" s="74"/>
       <c r="H85" s="20" t="s">
         <v>19</v>
       </c>
@@ -5284,13 +5296,13 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="76"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="77"/>
-      <c r="D86" s="78"/>
-      <c r="E86" s="80"/>
-      <c r="F86" s="80"/>
-      <c r="G86" s="118"/>
+      <c r="A86" s="79"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="81"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
+      <c r="G86" s="75"/>
       <c r="H86" s="7" t="s">
         <v>20</v>
       </c>
@@ -5334,16 +5346,16 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="70">
+      <c r="A87" s="58">
         <v>1</v>
       </c>
-      <c r="B87" s="64" t="s">
+      <c r="B87" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="65"/>
-      <c r="D87" s="66"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="63"/>
+      <c r="E87" s="72"/>
+      <c r="F87" s="72"/>
       <c r="G87" s="56"/>
       <c r="H87" s="23" t="str">
         <f>IF(E87="","","予定")</f>
@@ -5362,12 +5374,12 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="71"/>
-      <c r="B88" s="67"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
+      <c r="A88" s="59"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="73"/>
+      <c r="F88" s="73"/>
       <c r="G88" s="57"/>
       <c r="H88" s="24" t="str">
         <f>IF(E87="","","実績")</f>
@@ -5386,17 +5398,17 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="70"/>
-      <c r="B89" s="72" t="s">
+      <c r="A89" s="58"/>
+      <c r="B89" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C89" s="64" t="s">
+      <c r="C89" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="D89" s="66"/>
-      <c r="E89" s="58"/>
-      <c r="F89" s="58"/>
-      <c r="G89" s="60"/>
+      <c r="D89" s="63"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="68"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v/>
@@ -5424,12 +5436,12 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="71"/>
+      <c r="A90" s="59"/>
       <c r="B90" s="61"/>
-      <c r="C90" s="67"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="59"/>
-      <c r="F90" s="59"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="67"/>
       <c r="G90" s="61"/>
       <c r="H90" s="54" t="str">
         <f>IF(E89="","","実績")</f>
@@ -5451,17 +5463,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="70"/>
-      <c r="B91" s="72" t="s">
+      <c r="A91" s="58"/>
+      <c r="B91" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C91" s="123" t="s">
+      <c r="C91" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="D91" s="66"/>
-      <c r="E91" s="58"/>
-      <c r="F91" s="58"/>
-      <c r="G91" s="60"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="68"/>
       <c r="H91" s="8" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5489,12 +5501,12 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="71"/>
+      <c r="A92" s="59"/>
       <c r="B92" s="61"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="59"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="67"/>
       <c r="G92" s="61"/>
       <c r="H92" s="54" t="str">
         <f>IF(E91="","","実績")</f>
@@ -5516,16 +5528,16 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="70">
+      <c r="A93" s="58">
         <v>2</v>
       </c>
-      <c r="B93" s="64" t="s">
+      <c r="B93" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="65"/>
-      <c r="D93" s="66"/>
-      <c r="E93" s="62"/>
-      <c r="F93" s="62"/>
+      <c r="C93" s="70"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="72"/>
+      <c r="F93" s="72"/>
       <c r="G93" s="56"/>
       <c r="H93" s="23" t="str">
         <f>IF(E93="","","予定")</f>
@@ -5544,12 +5556,12 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="71"/>
-      <c r="B94" s="67"/>
-      <c r="C94" s="68"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="63"/>
-      <c r="F94" s="63"/>
+      <c r="A94" s="59"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="71"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="73"/>
+      <c r="F94" s="73"/>
       <c r="G94" s="57"/>
       <c r="H94" s="24" t="str">
         <f>IF(E93="","","実績")</f>
@@ -5568,17 +5580,17 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="70"/>
-      <c r="B95" s="72" t="s">
+      <c r="A95" s="58"/>
+      <c r="B95" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="64" t="s">
+      <c r="C95" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D95" s="66"/>
-      <c r="E95" s="58"/>
-      <c r="F95" s="58"/>
-      <c r="G95" s="60"/>
+      <c r="D95" s="63"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="68"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v/>
@@ -5606,12 +5618,12 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="71"/>
+      <c r="A96" s="59"/>
       <c r="B96" s="61"/>
-      <c r="C96" s="67"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="59"/>
-      <c r="F96" s="59"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="67"/>
       <c r="G96" s="61"/>
       <c r="H96" s="54" t="str">
         <f>IF(E95="","","実績")</f>
@@ -5633,17 +5645,17 @@
       <c r="S96" s="32"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="70"/>
-      <c r="B97" s="72" t="s">
+      <c r="A97" s="58"/>
+      <c r="B97" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="64" t="s">
+      <c r="C97" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D97" s="66"/>
-      <c r="E97" s="58"/>
-      <c r="F97" s="58"/>
-      <c r="G97" s="60"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="68"/>
       <c r="H97" s="8" t="str">
         <f>IF(E97="","","予定")</f>
         <v/>
@@ -5670,12 +5682,12 @@
       <c r="S97" s="31"/>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="71"/>
+      <c r="A98" s="59"/>
       <c r="B98" s="61"/>
-      <c r="C98" s="67"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="59"/>
-      <c r="F98" s="59"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="67"/>
       <c r="G98" s="61"/>
       <c r="H98" s="54" t="str">
         <f>IF(E97="","","実績")</f>
@@ -5697,15 +5709,15 @@
       <c r="S98" s="44"/>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="73" t="s">
+      <c r="A99" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B99" s="74"/>
-      <c r="C99" s="74"/>
-      <c r="D99" s="75"/>
-      <c r="E99" s="79"/>
-      <c r="F99" s="79"/>
-      <c r="G99" s="117"/>
+      <c r="B99" s="77"/>
+      <c r="C99" s="77"/>
+      <c r="D99" s="78"/>
+      <c r="E99" s="82"/>
+      <c r="F99" s="82"/>
+      <c r="G99" s="74"/>
       <c r="H99" s="20" t="s">
         <v>19</v>
       </c>
@@ -5749,13 +5761,13 @@
       </c>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="76"/>
-      <c r="B100" s="77"/>
-      <c r="C100" s="77"/>
-      <c r="D100" s="78"/>
-      <c r="E100" s="80"/>
-      <c r="F100" s="80"/>
-      <c r="G100" s="118"/>
+      <c r="A100" s="79"/>
+      <c r="B100" s="80"/>
+      <c r="C100" s="80"/>
+      <c r="D100" s="81"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="75"/>
       <c r="H100" s="7" t="s">
         <v>20</v>
       </c>
@@ -5799,16 +5811,16 @@
       </c>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="70">
+      <c r="A101" s="58">
         <v>1</v>
       </c>
-      <c r="B101" s="64" t="s">
+      <c r="B101" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C101" s="65"/>
-      <c r="D101" s="66"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="62"/>
+      <c r="C101" s="70"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
       <c r="G101" s="56"/>
       <c r="H101" s="23" t="str">
         <f>IF(E101="","","予定")</f>
@@ -5827,12 +5839,12 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="71"/>
-      <c r="B102" s="67"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="63"/>
-      <c r="F102" s="63"/>
+      <c r="A102" s="59"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="71"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="73"/>
+      <c r="F102" s="73"/>
       <c r="G102" s="57"/>
       <c r="H102" s="24" t="str">
         <f>IF(E101="","","実績")</f>
@@ -5851,17 +5863,17 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="70"/>
-      <c r="B103" s="72" t="s">
+      <c r="A103" s="58"/>
+      <c r="B103" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="64" t="s">
+      <c r="C103" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="D103" s="66"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="60"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="68"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v/>
@@ -5889,12 +5901,12 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="71"/>
+      <c r="A104" s="59"/>
       <c r="B104" s="61"/>
-      <c r="C104" s="67"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="59"/>
-      <c r="F104" s="59"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
       <c r="G104" s="61"/>
       <c r="H104" s="54" t="str">
         <f>IF(E103="","","実績")</f>
@@ -5916,17 +5928,17 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="70"/>
-      <c r="B105" s="72" t="s">
+      <c r="A105" s="58"/>
+      <c r="B105" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C105" s="64" t="s">
+      <c r="C105" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="D105" s="66"/>
-      <c r="E105" s="58"/>
-      <c r="F105" s="58"/>
-      <c r="G105" s="60"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="68"/>
       <c r="H105" s="8" t="str">
         <f>IF(E105="","","予定")</f>
         <v/>
@@ -5954,12 +5966,12 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="71"/>
+      <c r="A106" s="59"/>
       <c r="B106" s="61"/>
-      <c r="C106" s="67"/>
-      <c r="D106" s="69"/>
-      <c r="E106" s="59"/>
-      <c r="F106" s="59"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
       <c r="G106" s="61"/>
       <c r="H106" s="54" t="str">
         <f>IF(E105="","","実績")</f>
@@ -5981,16 +5993,16 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="70">
+      <c r="A107" s="58">
         <v>2</v>
       </c>
-      <c r="B107" s="64" t="s">
+      <c r="B107" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C107" s="65"/>
-      <c r="D107" s="66"/>
-      <c r="E107" s="62"/>
-      <c r="F107" s="62"/>
+      <c r="C107" s="70"/>
+      <c r="D107" s="63"/>
+      <c r="E107" s="72"/>
+      <c r="F107" s="72"/>
       <c r="G107" s="56"/>
       <c r="H107" s="23" t="str">
         <f>IF(E107="","","予定")</f>
@@ -6009,12 +6021,12 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="71"/>
-      <c r="B108" s="67"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="69"/>
-      <c r="E108" s="63"/>
-      <c r="F108" s="63"/>
+      <c r="A108" s="59"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="71"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="73"/>
+      <c r="F108" s="73"/>
       <c r="G108" s="57"/>
       <c r="H108" s="24" t="str">
         <f>IF(E107="","","実績")</f>
@@ -6033,17 +6045,17 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="70"/>
-      <c r="B109" s="72" t="s">
+      <c r="A109" s="58"/>
+      <c r="B109" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="64" t="s">
+      <c r="C109" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D109" s="66"/>
-      <c r="E109" s="58"/>
-      <c r="F109" s="58"/>
-      <c r="G109" s="60"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="66"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="68"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v/>
@@ -6071,12 +6083,12 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="71"/>
+      <c r="A110" s="59"/>
       <c r="B110" s="61"/>
-      <c r="C110" s="67"/>
-      <c r="D110" s="69"/>
-      <c r="E110" s="59"/>
-      <c r="F110" s="59"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="67"/>
       <c r="G110" s="61"/>
       <c r="H110" s="54" t="str">
         <f>IF(E109="","","実績")</f>
@@ -6098,17 +6110,17 @@
       <c r="S110" s="32"/>
     </row>
     <row r="111" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="70"/>
-      <c r="B111" s="72" t="s">
+      <c r="A111" s="58"/>
+      <c r="B111" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C111" s="64" t="s">
+      <c r="C111" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D111" s="66"/>
-      <c r="E111" s="58"/>
-      <c r="F111" s="58"/>
-      <c r="G111" s="60"/>
+      <c r="D111" s="63"/>
+      <c r="E111" s="66"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="68"/>
       <c r="H111" s="8" t="str">
         <f>IF(E111="","","予定")</f>
         <v/>
@@ -6136,12 +6148,12 @@
       <c r="S111" s="31"/>
     </row>
     <row r="112" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="71"/>
+      <c r="A112" s="59"/>
       <c r="B112" s="61"/>
-      <c r="C112" s="67"/>
-      <c r="D112" s="69"/>
-      <c r="E112" s="59"/>
-      <c r="F112" s="59"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="67"/>
       <c r="G112" s="61"/>
       <c r="H112" s="54" t="str">
         <f>IF(E111="","","実績")</f>
@@ -6178,95 +6190,208 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="315">
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="C97:D98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="A85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:D70"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="C105:D106"/>
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:D76"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="B101:D102"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
@@ -6291,208 +6416,95 @@
     <mergeCell ref="G57:G58"/>
     <mergeCell ref="A53:A54"/>
     <mergeCell ref="B53:B54"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B101:D102"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="A99:D100"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:D76"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="B107:D108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="A111:A112"/>
-    <mergeCell ref="B111:B112"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C97:D98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L87:S98 L101:S112 L9:S18 L22:S22 M21:S21 L25:S26 M27:S27 L28:S28 L30:S36 M29:S29 L66:S66 Q65:S65 L65:O65">
@@ -6758,18 +6770,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6791,18 +6803,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>